--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="123">
   <si>
     <t>Description</t>
   </si>
@@ -322,9 +322,6 @@
     <t>uint8 (to be transformed in enum), COMMAND = 2: ALL LED ON</t>
   </si>
   <si>
-    <t>Status: TurnED ON All LEDs</t>
-  </si>
-  <si>
     <t>uint8 (to be transformed in enum), STATUS = 2: ALL LED TURNED ON</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t>Turn on WS led, basic color(blue)</t>
   </si>
   <si>
-    <t>Status: TurnED OFF WS LEDs</t>
-  </si>
-  <si>
     <t>uint8 (to be transformed in enum), STATUS = 3: WS LED TURNED ON</t>
   </si>
   <si>
@@ -361,54 +355,6 @@
     <t>uint8 (to be transformed in enum), STATUS = 5: ALL LED TURNED OFF</t>
   </si>
   <si>
-    <t>Command: Turn ON point 0</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), COMMAND = 6: Point 0</t>
-  </si>
-  <si>
-    <t>Command: Turn ON point 1</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), COMMAND = 7: Point 1</t>
-  </si>
-  <si>
-    <t>Command: Turn ON point 2</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), COMMAND = 8: Point 2</t>
-  </si>
-  <si>
-    <t>Command: Turn ON point 3</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), COMMAND = 9: Point 3</t>
-  </si>
-  <si>
-    <t>Status: Turned ON point 0</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), STATUS = 6: Point 0</t>
-  </si>
-  <si>
-    <t>Status: Turned ON point 1</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), STATUS = 7: Point 1</t>
-  </si>
-  <si>
-    <t>Status: Turned ON point 2</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), STATUS = 8: Point 2</t>
-  </si>
-  <si>
-    <t>Status: Turned ON point 3</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), STATUS = 9: Point 3</t>
-  </si>
-  <si>
     <t>Status: Check RF connection</t>
   </si>
   <si>
@@ -428,6 +374,30 @@
   </si>
   <si>
     <t>bool= 1/0 CLOSER OR NOT</t>
+  </si>
+  <si>
+    <t>Status: Turned ON All LEDs</t>
+  </si>
+  <si>
+    <t>Status: Turned OFF WS LEDs</t>
+  </si>
+  <si>
+    <t>Command: Start Control</t>
+  </si>
+  <si>
+    <t>Status: Control Started + info pos</t>
+  </si>
+  <si>
+    <t>Command: Stop Control</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 4: STOP OBJECT CONTROL</t>
+  </si>
+  <si>
+    <t>101 Hz</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 4: STOPPED OBJECT CONTROL</t>
   </si>
 </sst>
 </file>
@@ -940,8 +910,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:G126"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1026,7 +996,7 @@
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -1041,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -1062,15 +1032,15 @@
         <v>16</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>14</v>
@@ -1085,7 +1055,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -1106,15 +1076,15 @@
         <v>16</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>14</v>
@@ -1129,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1157,12 +1127,12 @@
         <v>16</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>14</v>
@@ -1177,174 +1147,78 @@
         <v>17</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>111</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>113</v>
-      </c>
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>115</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="A22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>121</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:7" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>125</v>
-      </c>
+      <c r="A25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1371,7 +1245,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>6</v>
@@ -1383,7 +1257,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>94</v>
@@ -1414,7 +1288,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1434,12 +1308,12 @@
         <v>15</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>12</v>
@@ -1454,12 +1328,12 @@
         <v>20</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>6</v>
@@ -1474,12 +1348,52 @@
         <v>15</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="15" t="s">
-        <v>132</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="179">
   <si>
     <t>Description</t>
   </si>
@@ -94,93 +94,24 @@
     <t>ROS Paremeters</t>
   </si>
   <si>
-    <t>Point 1</t>
-  </si>
-  <si>
-    <t>Point 2</t>
-  </si>
-  <si>
-    <t>Point 3</t>
-  </si>
-  <si>
     <t>parameters</t>
   </si>
   <si>
-    <t>uint8 X, uint8 Y, bool enable, uint8 color (enum)</t>
-  </si>
-  <si>
-    <t>/mat_module/point0</t>
-  </si>
-  <si>
-    <t>/mat_module/point1</t>
-  </si>
-  <si>
-    <t>/mat_module/point2</t>
-  </si>
-  <si>
-    <t>/mat_module/point3</t>
-  </si>
-  <si>
-    <t>Rest Point (Point 0)</t>
-  </si>
-  <si>
-    <t>EsmaBox</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROM Max </t>
   </si>
   <si>
-    <t>/esmabox_module/ROM_Max</t>
-  </si>
-  <si>
     <t>ROM Min</t>
   </si>
   <si>
-    <t>/esmabox_module/ROM_Min</t>
-  </si>
-  <si>
-    <t>float[5] J_max</t>
-  </si>
-  <si>
     <t>Arm Length</t>
   </si>
   <si>
-    <t>float upperarm, float lower_arm</t>
-  </si>
-  <si>
     <t>Exercise Sequence</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>/FSM_module/point0</t>
-  </si>
-  <si>
-    <t>/FSM_module/point1</t>
-  </si>
-  <si>
-    <t>/FSM_module/point2</t>
-  </si>
-  <si>
-    <t>/FSM_module/point3</t>
-  </si>
-  <si>
-    <t>float[5] J_min</t>
-  </si>
-  <si>
-    <t>J Configuration Point 0</t>
-  </si>
-  <si>
-    <t>J Configuration Point 1</t>
-  </si>
-  <si>
-    <t>J Configuration Point 2</t>
-  </si>
-  <si>
-    <t>J Configuration Point 3</t>
-  </si>
-  <si>
     <t>MAT Calibration Matrix</t>
   </si>
   <si>
@@ -190,36 +121,12 @@
     <t>geometry_msgs/Pose or float[3] calibration_translation</t>
   </si>
   <si>
-    <t>/mat_module/calibration_matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> uint8 X, uint8 Y, float[5] J</t>
-  </si>
-  <si>
     <t>Modules to be used</t>
   </si>
   <si>
-    <t>boolean[n] active_modules</t>
-  </si>
-  <si>
-    <t>/esmabox_module/arm_length</t>
-  </si>
-  <si>
-    <t>/FSM_module/exercise_sequence</t>
-  </si>
-  <si>
-    <t>/FMS_module/active_modules</t>
-  </si>
-  <si>
     <t>Exercise Mode</t>
   </si>
   <si>
-    <t>/FSM_module/exercise_mode</t>
-  </si>
-  <si>
-    <t>uint8 exercise_mode (1: passive 2:trigger 3:aan 4: anti-g 5: challenging)</t>
-  </si>
-  <si>
     <t>/gui/status</t>
   </si>
   <si>
@@ -259,15 +166,9 @@
     <t>Status: Finish Exercise Sequence Definition</t>
   </si>
   <si>
-    <t>uint8[7] exercise_sequence</t>
-  </si>
-  <si>
     <t>Exercise Repetition</t>
   </si>
   <si>
-    <t>uint8[7] exercise_repetition</t>
-  </si>
-  <si>
     <t>Command: Prepare GUI</t>
   </si>
   <si>
@@ -464,6 +365,207 @@
   </si>
   <si>
     <t>Status: BUFFER OK</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 12: START TASK</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 12: TASK STARTED</t>
+  </si>
+  <si>
+    <t>Command: Update Subtask</t>
+  </si>
+  <si>
+    <t>Status: Subtask Updated</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 13: BUFFER STATE</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 13: BUFFER STATE</t>
+  </si>
+  <si>
+    <t>Command: Finish exercise guide</t>
+  </si>
+  <si>
+    <t>Status: exercise guide finished</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 14: FINISH EXERCISE</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 14: EXERCISE FINISHED</t>
+  </si>
+  <si>
+    <t>Object used</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>/point0</t>
+  </si>
+  <si>
+    <t>/mat_coordinates</t>
+  </si>
+  <si>
+    <t>/enabled</t>
+  </si>
+  <si>
+    <t>/color</t>
+  </si>
+  <si>
+    <t>/point1</t>
+  </si>
+  <si>
+    <t>/point2</t>
+  </si>
+  <si>
+    <t>/configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8  (1: red 2:blue 3:green) </t>
+  </si>
+  <si>
+    <t>/point3</t>
+  </si>
+  <si>
+    <t>REST POINT</t>
+  </si>
+  <si>
+    <t>EXERCISE POINT 1</t>
+  </si>
+  <si>
+    <t>EXERCISE POINT 2</t>
+  </si>
+  <si>
+    <t>EXERCISE POINT 3</t>
+  </si>
+  <si>
+    <t>/physiological_param</t>
+  </si>
+  <si>
+    <t>/ROM_Max</t>
+  </si>
+  <si>
+    <t>/ROM_Min</t>
+  </si>
+  <si>
+    <t>/arm_length</t>
+  </si>
+  <si>
+    <t>/exercise</t>
+  </si>
+  <si>
+    <t>/sequence</t>
+  </si>
+  <si>
+    <t>/repetitions</t>
+  </si>
+  <si>
+    <t>/mode</t>
+  </si>
+  <si>
+    <t>/calibration_matrix</t>
+  </si>
+  <si>
+    <t>/active_modules</t>
+  </si>
+  <si>
+    <t>/object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8[2] (X,Y) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">float[5] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">float[5] J_max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">float[5] J_min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">float[2] (upperarm, lower_arm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8[7] exercise_sequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8[7] exercise_repetition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8 exercise_mode (1: passive 2:trigger 3:aan 4: anti-g 5: challenging) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean[n] active_modules </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8 object (1: glass, 2:bottle ...) </t>
+  </si>
+  <si>
+    <t>Status: Check IK connection</t>
+  </si>
+  <si>
+    <t>IK node</t>
+  </si>
+  <si>
+    <t>/IK_node/status</t>
+  </si>
+  <si>
+    <t>Command: Do Mat REGISTRATION</t>
+  </si>
+  <si>
+    <t>Status: REGISTRATION Done</t>
+  </si>
+  <si>
+    <t>/IK_node/command</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 2: START REGISTRATION</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 2: REGISTRATION FINISHED</t>
+  </si>
+  <si>
+    <t>Command: Define WORK VOLUME</t>
+  </si>
+  <si>
+    <t>Status: WORK VOLUME Defined</t>
+  </si>
+  <si>
+    <t>Command: Define TRAJECTORY</t>
+  </si>
+  <si>
+    <t>Status: TRAJECTORY Defined</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 3: DEFINE WORK VOLUME</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 3: WORK VOLUME DEFINED</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 4: DEFINE TRAJECTORY</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 4: TRAJECTORY DEFINED</t>
+  </si>
+  <si>
+    <t>IK NODE</t>
+  </si>
+  <si>
+    <t>GUI NODE</t>
+  </si>
+  <si>
+    <t>RF SYSTEM NODE</t>
+  </si>
+  <si>
+    <t>MAT NODE</t>
   </si>
 </sst>
 </file>
@@ -571,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,6 +734,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,18 +1059,16 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="6" customWidth="1"/>
     <col min="2" max="2" width="16" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" style="6"/>
-    <col min="4" max="4" width="14.44140625" style="9"/>
+    <col min="4" max="4" width="32.44140625" style="9" customWidth="1"/>
     <col min="5" max="5" width="32.21875" style="9" customWidth="1"/>
     <col min="6" max="6" width="80.5546875" style="9" customWidth="1"/>
     <col min="7" max="7" width="58.33203125" style="9" customWidth="1"/>
@@ -972,7 +1078,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -995,7 +1101,7 @@
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>10</v>
@@ -1010,10 +1116,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -1034,12 +1140,12 @@
         <v>12</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
@@ -1054,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -1075,15 +1181,15 @@
         <v>12</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
@@ -1098,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -1119,15 +1225,15 @@
         <v>12</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>10</v>
@@ -1142,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1155,7 +1261,7 @@
     </row>
     <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>8</v>
@@ -1170,12 +1276,12 @@
         <v>12</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>10</v>
@@ -1190,13 +1296,13 @@
         <v>13</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
@@ -1211,12 +1317,12 @@
         <v>12</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>10</v>
@@ -1231,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1345,7 @@
     <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
@@ -1262,7 +1368,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>6</v>
@@ -1274,10 +1380,10 @@
         <v>9</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G22" s="10"/>
     </row>
@@ -1305,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -1326,12 +1432,12 @@
         <v>11</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
@@ -1346,12 +1452,12 @@
         <v>15</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>6</v>
@@ -1366,17 +1472,17 @@
         <v>11</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="12" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>8</v>
@@ -1391,12 +1497,12 @@
         <v>15</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>6</v>
@@ -1405,496 +1511,763 @@
         <v>8</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="19" t="s">
+      <c r="B70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D80" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E80" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F80" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G80" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>140</v>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1902,270 +2275,382 @@
         <v>20</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C103" s="14"/>
-      <c r="D103" s="15"/>
+      <c r="D103" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="E103" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" s="15"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
+      <c r="D105" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="D106" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="22"/>
+      <c r="D107" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="21"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
+      <c r="D110" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="D111" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="D112" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
+      <c r="D115" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
+      <c r="D116" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="22"/>
+      <c r="D117" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="21"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="D120" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
+      <c r="D121" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
+      <c r="D122" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="21"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="E124" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="21"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="D126" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="D127" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F103" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G103" s="15"/>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+      <c r="B128" s="7"/>
+      <c r="D128" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="21"/>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="21"/>
+      <c r="B130" s="7"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="D131" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="D132" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c r="D133" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="21"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>56</v>
+      <c r="B135" s="7"/>
+      <c r="E135" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="21"/>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A119:A122"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="179">
   <si>
     <t>Description</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Command: REST Pos Procedure</t>
   </si>
   <si>
-    <t>Status: Finish REST Pos Procedure</t>
-  </si>
-  <si>
     <t>Command: Exercise Sequence Definition</t>
   </si>
   <si>
@@ -301,12 +298,6 @@
     <t>uint8 (to be transformed in enum) STATUS = 4: FINISHED ROM/LENGTH</t>
   </si>
   <si>
-    <t>uint8 (to be transformed in enum) STATUS = 5: FINISHED REST POS</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum) STATUS = 6: FINISHED EXER SEQUENCE</t>
-  </si>
-  <si>
     <t>uint8 (to be transformed in enum) STATUS = 7: GUI READY SELECTION POINTS</t>
   </si>
   <si>
@@ -328,12 +319,6 @@
     <t>uint8 (to be transformed in enum) COMMAND = 4: ROM/LENGTH</t>
   </si>
   <si>
-    <t>uint8 (to be transformed in enum) COMMAND = 5: REST POS PROCEDURE</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum) COMMAND = 6: DEFINE SEQUENCE</t>
-  </si>
-  <si>
     <t>uint8 (to be transformed in enum) COMMAND = 7: PREPARE GUI</t>
   </si>
   <si>
@@ -343,18 +328,6 @@
     <t>uint8 (to be transformed in enum) COMMAND = 9: POINT SELECTION</t>
   </si>
   <si>
-    <t>Command: Select Object</t>
-  </si>
-  <si>
-    <t>Status: Object Selected</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum) COMMAND = 11: SELECT OBJECT</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum) STATUS = 11: OBJECT SELECTED</t>
-  </si>
-  <si>
     <t>Command: Buffer State</t>
   </si>
   <si>
@@ -505,9 +478,6 @@
     <t xml:space="preserve">boolean[n] active_modules </t>
   </si>
   <si>
-    <t xml:space="preserve">uint8 object (1: glass, 2:bottle ...) </t>
-  </si>
-  <si>
     <t>Status: Check IK connection</t>
   </si>
   <si>
@@ -566,6 +536,36 @@
   </si>
   <si>
     <t>MAT NODE</t>
+  </si>
+  <si>
+    <t>define control type, sequence of exercise and object used</t>
+  </si>
+  <si>
+    <t>Status: Save Position Reached</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) COMMAND = 5: DEFINE SEQUENCE</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 5: FINISHED EXER SEQUENCE</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) COMMAND = 6: REST POS PROCEDURE</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 6: SAVE POSITION REACHED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8[7] object (1: glass, 2:bottle ...) </t>
+  </si>
+  <si>
+    <t>Current Exercise</t>
+  </si>
+  <si>
+    <t>/current_exercise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8 </t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -734,9 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,9 +1056,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1078,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1101,7 +1100,7 @@
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>10</v>
@@ -1116,10 +1115,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -1140,12 +1139,12 @@
         <v>12</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
@@ -1160,7 +1159,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -1181,15 +1180,15 @@
         <v>12</v>
       </c>
       <c r="F7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
@@ -1204,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -1225,15 +1224,15 @@
         <v>12</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>10</v>
@@ -1248,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1276,12 +1275,12 @@
         <v>12</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>10</v>
@@ -1296,13 +1295,13 @@
         <v>13</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
@@ -1317,12 +1316,12 @@
         <v>12</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>10</v>
@@ -1337,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1344,7 @@
     <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
@@ -1368,7 +1367,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>6</v>
@@ -1380,10 +1379,10 @@
         <v>9</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="10"/>
     </row>
@@ -1411,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -1432,12 +1431,12 @@
         <v>11</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
@@ -1452,12 +1451,12 @@
         <v>15</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>6</v>
@@ -1472,17 +1471,17 @@
         <v>11</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>8</v>
@@ -1497,12 +1496,12 @@
         <v>15</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>6</v>
@@ -1511,18 +1510,18 @@
         <v>8</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>1</v>
@@ -1560,7 +1559,7 @@
         <v>32</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="10"/>
     </row>
@@ -1584,7 +1583,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1604,7 +1603,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1632,7 +1631,7 @@
         <v>33</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,7 +1651,7 @@
         <v>32</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1665,7 +1664,7 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
@@ -1680,12 +1679,12 @@
         <v>33</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>34</v>
@@ -1700,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1711,9 +1710,9 @@
       <c r="E48" s="12"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>8</v>
@@ -1728,12 +1727,15 @@
         <v>33</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>34</v>
@@ -1748,20 +1750,12 @@
         <v>32</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>8</v>
@@ -1776,12 +1770,12 @@
         <v>33</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>34</v>
@@ -1796,20 +1790,12 @@
         <v>32</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>8</v>
@@ -1824,12 +1810,12 @@
         <v>33</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>34</v>
@@ -1844,12 +1830,12 @@
         <v>32</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>8</v>
@@ -1864,12 +1850,12 @@
         <v>33</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>34</v>
@@ -1884,12 +1870,12 @@
         <v>32</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>8</v>
@@ -1904,12 +1890,12 @@
         <v>33</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>34</v>
@@ -1924,12 +1910,12 @@
         <v>32</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>34</v>
@@ -1944,52 +1930,52 @@
         <v>32</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>106</v>
+      <c r="F66" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>107</v>
+      <c r="F67" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>8</v>
@@ -2004,12 +1990,12 @@
         <v>33</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>10</v>
@@ -2024,12 +2010,12 @@
         <v>32</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>8</v>
@@ -2044,12 +2030,12 @@
         <v>33</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>10</v>
@@ -2064,593 +2050,558 @@
         <v>32</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>121</v>
+      <c r="A76" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="17" t="s">
+      <c r="A80" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F83" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="11" t="s">
         <v>160</v>
       </c>
+      <c r="B86" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="D86" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F86" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>174</v>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="15"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="21"/>
+      <c r="D101" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="D102" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" s="15"/>
+      <c r="A103" s="21"/>
+      <c r="D103" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" s="9" t="s">
+      <c r="A104" s="21"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F104" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
       <c r="D105" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F105" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="21"/>
+      <c r="D106" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="21"/>
+      <c r="D107" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F107" s="12" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
-      <c r="D106" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="D107" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
+      <c r="D108" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>149</v>
-      </c>
+      <c r="A109" s="21"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
+      <c r="A110" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="D110" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F110" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="21"/>
+      <c r="D111" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="21"/>
+      <c r="D112" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F112" s="12" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-      <c r="D111" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="D112" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
+      <c r="D113" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>149</v>
-      </c>
+      <c r="A114" s="21"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
+      <c r="A115" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="D115" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F115" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="21"/>
+      <c r="D116" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="21"/>
+      <c r="D117" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F117" s="12" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="D116" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="22"/>
-      <c r="D117" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
+      <c r="D118" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="21"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="E120" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
-      <c r="D120" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>123</v>
+      <c r="F120" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="22"/>
-      <c r="D121" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>132</v>
-      </c>
+      <c r="A121" s="21"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="22"/>
+      <c r="A122" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="7"/>
       <c r="D122" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E122" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="D123" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E123" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F122" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="21"/>
+      <c r="F123" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B124" s="7"/>
+      <c r="D124" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="E124" s="12" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="A126" s="21"/>
       <c r="B126" s="7"/>
-      <c r="D126" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>151</v>
-      </c>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B127" s="7"/>
       <c r="D127" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B128" s="7"/>
       <c r="D128" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="21"/>
+      <c r="A129" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c r="D129" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
-      <c r="B130" s="7"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B131" s="7"/>
-      <c r="D131" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="E131" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B132" s="7"/>
-      <c r="D132" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>155</v>
-      </c>
+      <c r="A132" s="21"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B133" s="7"/>
-      <c r="D133" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>145</v>
+        <v>113</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="21"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B135" s="7"/>
-      <c r="E135" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="21"/>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>158</v>
+      <c r="A134" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A119:A122"/>
-  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="179">
   <si>
     <t>Description</t>
   </si>
@@ -442,9 +442,6 @@
     <t>/mode</t>
   </si>
   <si>
-    <t>/calibration_matrix</t>
-  </si>
-  <si>
     <t>/active_modules</t>
   </si>
   <si>
@@ -566,6 +563,9 @@
   </si>
   <si>
     <t xml:space="preserve">uint8 </t>
+  </si>
+  <si>
+    <t>/registration_matrix</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1056,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1344,7 +1344,7 @@
     <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>1</v>
@@ -1727,10 +1727,10 @@
         <v>33</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>32</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,12 +1770,12 @@
         <v>33</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>34</v>
@@ -1790,7 +1790,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>1</v>
@@ -2078,19 +2078,19 @@
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="C77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>53</v>
@@ -2098,122 +2098,122 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="F80" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="F83" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="F86" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2246,7 +2246,7 @@
         <v>117</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>122</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2299,7 +2299,7 @@
         <v>117</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>122</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>117</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
         <v>122</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,7 +2405,7 @@
         <v>117</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
         <v>122</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2449,120 +2449,128 @@
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B120" s="7"/>
+      <c r="D120" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="E120" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="21"/>
+      <c r="A121" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="D121" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B122" s="7"/>
       <c r="D122" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="7"/>
-      <c r="D123" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>143</v>
-      </c>
+      <c r="A123" s="21"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="A124" s="21"/>
       <c r="B124" s="7"/>
-      <c r="D124" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F124" s="12" t="s">
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="D125" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F125" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="21"/>
-    </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="21"/>
+      <c r="A126" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="B126" s="7"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
+      <c r="D126" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B127" s="7"/>
       <c r="D127" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128" s="7"/>
+        <v>113</v>
+      </c>
       <c r="D128" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E128" s="12" t="s">
-        <v>135</v>
+      <c r="E128" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B129" s="7"/>
-      <c r="D129" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="21"/>
+      <c r="A130" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="E130" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
@@ -2570,35 +2578,21 @@
       </c>
       <c r="B131" s="7"/>
       <c r="E131" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="21"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F133" s="12" t="s">
+      <c r="A132" s="21" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="21" t="s">
+      <c r="E132" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="F132" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="183">
   <si>
     <t>Description</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Status: Check RF connection</t>
   </si>
   <si>
-    <t>/rf_system_module/status</t>
-  </si>
-  <si>
     <t>uint8 (to be transformed in enum), COMMAND = 2: SAVE ANTENNA MAT POSITION</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>101 Hz</t>
   </si>
   <si>
-    <t>uint8 (to be transformed in enum), COMMAND = 4: STOPPED OBJECT CONTROL</t>
-  </si>
-  <si>
     <t>Status: Stop Control</t>
   </si>
   <si>
@@ -566,6 +560,24 @@
   </si>
   <si>
     <t>/registration_matrix</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 4: STOPPED OBJECT CONTROL</t>
+  </si>
+  <si>
+    <t>position in exercise sequence</t>
+  </si>
+  <si>
+    <t>Command: Check Grip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: Check Grip + info </t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 4: START GRIP CHECK</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 4: START GRIP CHECK</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1070,8 @@
   </sheetPr>
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1089,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1144,7 +1156,7 @@
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
@@ -1188,7 +1200,7 @@
     </row>
     <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
@@ -1301,7 +1313,7 @@
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
@@ -1316,12 +1328,12 @@
         <v>12</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>10</v>
@@ -1336,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1356,7 @@
     <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
@@ -1379,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>53</v>
@@ -1410,7 +1422,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -1431,12 +1443,12 @@
         <v>11</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
@@ -1451,769 +1463,814 @@
         <v>15</v>
       </c>
       <c r="F27" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="F29" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="12" t="s">
-        <v>73</v>
+      <c r="D31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="7" t="s">
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="C36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="E36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="3"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="A43" s="8"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13"/>
+      <c r="F45" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
+      <c r="F48" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>168</v>
-      </c>
+      <c r="A49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>172</v>
+      <c r="F51" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>96</v>
+      <c r="F54" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>97</v>
+      <c r="F57" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>98</v>
+      <c r="F60" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="F63" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>103</v>
+      <c r="F65" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="D67" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F67" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>107</v>
+      <c r="F68" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="D70" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>111</v>
+      <c r="F71" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="19" t="s">
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C77" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D77" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E77" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F77" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G77" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F77" s="13" t="s">
+      <c r="F78" s="13" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F80" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="17" t="s">
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="17" t="s">
+      <c r="B81" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>8</v>
+        <v>154</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>162</v>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>8</v>
+        <v>156</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2225,7 +2282,7 @@
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>21</v>
@@ -2237,52 +2294,52 @@
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="D101" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="F101" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="D102" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="D103" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,52 +2347,52 @@
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
       <c r="D106" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
       <c r="D107" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
       <c r="D108" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E108" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="F108" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2343,52 +2400,52 @@
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
       <c r="D111" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="D112" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
       <c r="D113" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2396,52 +2453,52 @@
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="D116" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="D117" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="D118" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,13 +2510,13 @@
       </c>
       <c r="B120" s="7"/>
       <c r="D120" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,13 +2525,13 @@
       </c>
       <c r="B121" s="7"/>
       <c r="D121" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E121" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="F121" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2483,13 +2540,13 @@
       </c>
       <c r="B122" s="7"/>
       <c r="D122" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2507,13 +2564,13 @@
       </c>
       <c r="B125" s="7"/>
       <c r="D125" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,13 +2579,13 @@
       </c>
       <c r="B126" s="7"/>
       <c r="D126" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E126" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E126" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="F126" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2537,62 +2594,65 @@
       </c>
       <c r="B127" s="7"/>
       <c r="D127" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B130" s="7"/>
       <c r="E130" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B131" s="7"/>
       <c r="E131" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F132" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E132" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>177</v>
+      <c r="G132" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="184">
   <si>
     <t>Description</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Command: Stop Control</t>
   </si>
   <si>
-    <t>uint8 (to be transformed in enum), COMMAND = 4: STOP OBJECT CONTROL</t>
-  </si>
-  <si>
     <t>101 Hz</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
     <t>/registration_matrix</t>
   </si>
   <si>
-    <t>uint8 (to be transformed in enum), STATUS = 4: STOPPED OBJECT CONTROL</t>
-  </si>
-  <si>
     <t>position in exercise sequence</t>
   </si>
   <si>
@@ -578,6 +572,15 @@
   </si>
   <si>
     <t>uint8 (to be transformed in enum), STATUS = 4: START GRIP CHECK</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 5: STOP OBJECT CONTROL</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 5: STOPPED OBJECT CONTROL</t>
+  </si>
+  <si>
+    <t>SPALLA,GOMITO,POLSO,MAT,RFID,MAP,EMG</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +675,12 @@
         <bgColor rgb="FFF1C232"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -685,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,6 +758,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1091,8 @@
   </sheetPr>
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1110,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1312,43 +1333,43 @@
     </row>
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="C17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1377,7 @@
     <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
@@ -1493,7 +1514,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>8</v>
@@ -1508,12 +1529,12 @@
         <v>15</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>6</v>
@@ -1528,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1553,12 +1574,12 @@
         <v>15</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>6</v>
@@ -1567,710 +1588,710 @@
         <v>8</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D45" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E45" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F45" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G45" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
+      <c r="F46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="13"/>
+      <c r="F49" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>166</v>
-      </c>
+      <c r="A50" s="8"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>169</v>
+      <c r="F52" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="A53" s="8"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>171</v>
+      <c r="F55" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A56" s="8"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>95</v>
+      <c r="F58" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>96</v>
+      <c r="F61" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F70" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="D74" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="12" t="s">
+      <c r="F75" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="F77" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="12" t="s">
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="F78" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="12" t="s">
+      <c r="F80" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F73" s="13" t="s">
+      <c r="F81" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" s="19" t="s">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D84" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E84" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="20" t="s">
+      <c r="F84" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G84" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="C85" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="17" t="s">
+      <c r="F85" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="B87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="11" t="s">
+      <c r="B88" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D80" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F80" s="13" t="s">
+      <c r="F88" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="F90" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="F91" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F86" s="13" t="s">
+      <c r="F94" s="13" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,7 +2303,7 @@
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>21</v>
@@ -2294,52 +2315,52 @@
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D100" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="F100" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="D101" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="D102" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="D103" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2347,52 +2368,52 @@
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
       <c r="D106" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
       <c r="D107" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
       <c r="D108" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2400,52 +2421,52 @@
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
       <c r="D111" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="D112" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
       <c r="D113" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E113" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="F113" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,52 +2474,52 @@
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="D116" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="D117" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="D118" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,13 +2531,13 @@
       </c>
       <c r="B120" s="7"/>
       <c r="D120" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E120" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E120" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="F120" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2525,13 +2546,13 @@
       </c>
       <c r="B121" s="7"/>
       <c r="D121" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,13 +2561,13 @@
       </c>
       <c r="B122" s="7"/>
       <c r="D122" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2564,13 +2585,13 @@
       </c>
       <c r="B125" s="7"/>
       <c r="D125" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E125" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E125" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="F125" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2579,13 +2600,13 @@
       </c>
       <c r="B126" s="7"/>
       <c r="D126" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2594,27 +2615,27 @@
       </c>
       <c r="B127" s="7"/>
       <c r="D127" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2623,7 +2644,7 @@
       </c>
       <c r="B130" s="7"/>
       <c r="E130" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>29</v>
@@ -2635,24 +2656,27 @@
       </c>
       <c r="B131" s="7"/>
       <c r="E131" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="F132" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F132" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="G132" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="207">
   <si>
     <t>Description</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Status: Turned OFF WS LEDs</t>
   </si>
   <si>
-    <t>Command: Start Control</t>
-  </si>
-  <si>
     <t>Status: Control Started + info pos</t>
   </si>
   <si>
@@ -565,18 +562,6 @@
     <t>SPALLA,GOMITO,POLSO,MAT,RFID,MAP,EMG</t>
   </si>
   <si>
-    <t>uint8 (to be transformed in enum), COMMAND = 4: STOP OBJECT CONTROL</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), STATUS = 4: STOPPED OBJECT CONTROL</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), COMMAND = 5: START GRIP CHECK</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), STATUS = 5: START GRIP CHECK</t>
-  </si>
-  <si>
     <t>/registration_antenna_point</t>
   </si>
   <si>
@@ -629,6 +614,42 @@
   </si>
   <si>
     <t>Command: Turn ON Point3 (RIGTH)</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 4: START GRIP CONTROL</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 4: STARTED GRIP CONTROL</t>
+  </si>
+  <si>
+    <t>bool= 1/0 GRIP (not used)</t>
+  </si>
+  <si>
+    <t>bool= 1/0 GRIP</t>
+  </si>
+  <si>
+    <t>bool= 1/0 CLOSER OR NOT (not used)</t>
+  </si>
+  <si>
+    <t>Command: Start Control Object</t>
+  </si>
+  <si>
+    <t>Command: Start Control Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: Check Position + info </t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 5: START GRIP CONTROL</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 5: STARTED GRIP CONTROL</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 6: STOPPED CONTROL</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 6: STOP CONTROL</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1149,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1170,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1352,7 +1373,7 @@
     </row>
     <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>10</v>
@@ -1373,7 +1394,7 @@
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>8</v>
@@ -1388,12 +1409,12 @@
         <v>12</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>10</v>
@@ -1408,13 +1429,13 @@
         <v>13</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>8</v>
@@ -1429,12 +1450,12 @@
         <v>12</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>10</v>
@@ -1449,13 +1470,13 @@
         <v>13</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
@@ -1470,12 +1491,12 @@
         <v>12</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>10</v>
@@ -1490,12 +1511,12 @@
         <v>13</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>8</v>
@@ -1510,12 +1531,12 @@
         <v>12</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>10</v>
@@ -1530,12 +1551,12 @@
         <v>13</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>8</v>
@@ -1550,12 +1571,12 @@
         <v>12</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>10</v>
@@ -1570,12 +1591,12 @@
         <v>13</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>1</v>
@@ -1666,7 +1687,7 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>8</v>
@@ -1686,7 +1707,7 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>6</v>
@@ -1709,488 +1730,458 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="C50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="F54" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="C55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="B61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="18" t="s">
+      <c r="F61" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D70" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E70" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="F70" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G70" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="13"/>
+      <c r="F73" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>166</v>
+      <c r="F76" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>168</v>
+      <c r="F79" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="D88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="F88" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>33</v>
@@ -2205,688 +2196,788 @@
         <v>31</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="12" t="s">
+      <c r="D91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="12" t="s">
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="12" t="s">
+      <c r="D94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="12" t="s">
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>103</v>
+      <c r="F95" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="12" t="s">
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="F99" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="12" t="s">
+      <c r="C100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F98" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="19" t="s">
-        <v>5</v>
+      <c r="F100" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>145</v>
+        <v>93</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>149</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>144</v>
+        <v>103</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E105" s="17" t="s">
-        <v>145</v>
+      <c r="E105" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>156</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="11" t="s">
+      <c r="B119" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D110" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F110" s="13" t="s">
+      <c r="F119" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B124" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="15" t="s">
+      <c r="C124" s="14"/>
+      <c r="D124" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="15"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E116" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F116" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="15"/>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D117" s="9" t="s">
+      <c r="E125" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E117" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="D118" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
-      <c r="D119" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="D120" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-      <c r="D123" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
-      <c r="D124" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
-      <c r="D125" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="F125" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
+      <c r="D126" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="A127" s="20"/>
       <c r="D127" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20"/>
       <c r="D128" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>109</v>
+      <c r="F128" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="20"/>
-      <c r="D129" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E129" s="9" t="s">
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F129" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
-      <c r="D130" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="E130" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
+      <c r="D131" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="A132" s="20"/>
       <c r="D132" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="20"/>
       <c r="D133" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
-      <c r="D134" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
+      <c r="A135" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="D135" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
+      <c r="D136" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B137" s="7"/>
+      <c r="A137" s="20"/>
       <c r="D137" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="7"/>
+      <c r="A138" s="20"/>
       <c r="D138" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B139" s="7"/>
-      <c r="D139" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>138</v>
-      </c>
+      <c r="A139" s="20"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
+      <c r="A140" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
-      <c r="B141" s="7"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
+      <c r="D141" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B142" s="7"/>
+      <c r="A142" s="20"/>
       <c r="D142" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>129</v>
+        <v>118</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" s="7"/>
+      <c r="A143" s="20"/>
       <c r="D143" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>130</v>
+        <v>118</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B144" s="7"/>
-      <c r="D144" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F144" s="12" t="s">
-        <v>141</v>
-      </c>
+      <c r="A144" s="20"/>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
-        <v>108</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B145" s="7"/>
       <c r="D145" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="7"/>
       <c r="D146" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>171</v>
+        <v>123</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="D147" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="20"/>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="20"/>
+      <c r="B149" s="7"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c r="D150" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="D151" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" s="7"/>
+      <c r="D152" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B147" s="7"/>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
+      <c r="B155" s="7"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B148" s="7"/>
-      <c r="E148" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E150" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F150" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G150" s="9" t="s">
+      <c r="B156" s="7"/>
+      <c r="E156" s="9" t="s">
         <v>177</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E158" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\Agree\AGREE-diagrams\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="AGREE communication" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="AGREE communication" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,677 +24,660 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="210">
-  <si>
-    <t xml:space="preserve">MAT NODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Check MAT connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Hz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/mat_module/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 1: CONNECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mat module ONLINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Turn ON All LEDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/mat_module/command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 2: ALL LED ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Turned ON All LEDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 2: ALL LED TURNED ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Turn ON WS LEDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 3: WS LED ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn on WS led, basic color(blue)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Turned OFF WS LEDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 3: WS LED TURNED ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Update LEDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 4: UPDATE LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load 4 points from parameters, turn on color (red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: UpdateED LEDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 4: UPDATED LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Turn OFF all LEDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 5: ALL LED OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Turned OFF all LEDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 5: ALL LED TURNED OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Buffer State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 6: BUFFER STATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: BUFFER OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 6: BUFFER STATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Turn ON rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 7: ON LED REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Turned ON rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 7: REST TURNED ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Turn ON Point1 (LEFT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 8: ON LED POINT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Turned on Point1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 8: POINT1 TURNED ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Turn ON Point2 (CENTER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 9: ON LED POINT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 9: POINT2 TURNED ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Turn ON Point3 (RIGTH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 10: ON LED POINT 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 10: POINT3 TURNED ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF SYSTEM NODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Check RF connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/rf_module/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Save XYZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/rf_module/command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 2: SAVE ANTENNA MAT POSITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Save XYZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 2: ANTENNA MAT POSITION SAVED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Start Control Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 3: START OBJECT CONTROL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Control Started + info pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 3: STARTED OBJECT CONTROL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool= 1/0 CLOSER OR NOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool= 1/0 GRIP (not used)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Check Grip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 4: START GRIP CONTROL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="211">
+  <si>
+    <t>MAT NODE</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Subscriber</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status: Check MAT connection</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>100 Hz</t>
+  </si>
+  <si>
+    <t>/mat_module/status</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 1: CONNECTED</t>
+  </si>
+  <si>
+    <t>Mat module ONLINE</t>
+  </si>
+  <si>
+    <t>Command: Turn ON All LEDs</t>
+  </si>
+  <si>
+    <t>/mat_module/command</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 2: ALL LED ON</t>
+  </si>
+  <si>
+    <t>Status: Turned ON All LEDs</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 2: ALL LED TURNED ON</t>
+  </si>
+  <si>
+    <t>Command: Turn ON WS LEDs</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 3: WS LED ON</t>
+  </si>
+  <si>
+    <t>Turn on WS led, basic color(blue)</t>
+  </si>
+  <si>
+    <t>Status: Turned OFF WS LEDs</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 3: WS LED TURNED ON</t>
+  </si>
+  <si>
+    <t>Command: Update LEDs</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 4: UPDATE LED</t>
+  </si>
+  <si>
+    <t>Load 4 points from parameters, turn on color (red)</t>
+  </si>
+  <si>
+    <t>Status: UpdateED LEDs</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 4: UPDATED LED</t>
+  </si>
+  <si>
+    <t>Command: Turn OFF all LEDs</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 5: ALL LED OFF</t>
+  </si>
+  <si>
+    <t>Status: Turned OFF all LEDs</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 5: ALL LED TURNED OFF</t>
+  </si>
+  <si>
+    <t>Command: Buffer State</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 6: BUFFER STATE</t>
+  </si>
+  <si>
+    <t>Status: BUFFER OK</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 6: BUFFER STATE</t>
+  </si>
+  <si>
+    <t>Command: Turn ON rest</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 7: ON LED REST</t>
+  </si>
+  <si>
+    <t>Status: Turned ON rest</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 7: REST TURNED ON</t>
+  </si>
+  <si>
+    <t>Command: Turn ON Point1 (LEFT)</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 8: ON LED POINT 1</t>
+  </si>
+  <si>
+    <t>Status: Turned on Point1</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 8: POINT1 TURNED ON</t>
+  </si>
+  <si>
+    <t>Command: Turn ON Point2 (CENTER)</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 9: ON LED POINT2</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 9: POINT2 TURNED ON</t>
+  </si>
+  <si>
+    <t>Command: Turn ON Point3 (RIGTH)</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 10: ON LED POINT 3</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 10: POINT3 TURNED ON</t>
+  </si>
+  <si>
+    <t>RF SYSTEM NODE</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Status: Check RF connection</t>
+  </si>
+  <si>
+    <t>RF system</t>
+  </si>
+  <si>
+    <t>/rf_module/status</t>
+  </si>
+  <si>
+    <t>Command: Save XYZ</t>
+  </si>
+  <si>
+    <t>/rf_module/command</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 2: SAVE ANTENNA MAT POSITION</t>
+  </si>
+  <si>
+    <t>Status: Save XYZ</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 2: ANTENNA MAT POSITION SAVED</t>
+  </si>
+  <si>
+    <t>Command: Start Control Object</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 3: START OBJECT CONTROL</t>
+  </si>
+  <si>
+    <t>Status: Control Started + info pos</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 3: STARTED OBJECT CONTROL</t>
+  </si>
+  <si>
+    <t>bool= 1/0 CLOSER OR NOT</t>
+  </si>
+  <si>
+    <t>bool= 1/0 GRIP (not used)</t>
+  </si>
+  <si>
+    <t>Command: Check Grip</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 4: START GRIP CONTROL</t>
   </si>
   <si>
     <t xml:space="preserve">Status: Check Grip + info </t>
   </si>
   <si>
-    <t xml:space="preserve">101 Hz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 4: STARTED GRIP CONTROL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool= 1/0 GRIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Start Control Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 5: START GRIP CONTROL</t>
+    <t>101 Hz</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 4: STARTED GRIP CONTROL</t>
+  </si>
+  <si>
+    <t>bool= 1/0 GRIP</t>
+  </si>
+  <si>
+    <t>Command: Start Control Position</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 5: START GRIP CONTROL</t>
   </si>
   <si>
     <t xml:space="preserve">Status: Check Position + info </t>
   </si>
   <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 5: STARTED GRIP CONTROL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Stop Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 6: STOP CONTROL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Stop Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 6: STOPPED CONTROL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool= 1/0 CLOSER OR NOT (not used)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUI NODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Finish log in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/gui/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) STATUS = 1: LOG IN FINISHED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Home Page Therapist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/gui/command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) COMMAND = 2: HOMEPAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Finish Home Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) STATUS = 2: FINISHED HOMEPAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Wearing Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) COMMAND = 3: WEARING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Finish Wearing Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) STATUS = 3: FINISHED WEARING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: ROM/LENGTH Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) COMMAND = 4: ROM/LENGTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Finish ROM/LENGTH Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) STATUS = 4: FINISHED ROM/LENGTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Exercise Sequence Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) COMMAND = 5: DEFINE SEQUENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">define control type, sequence of exercise and object used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Finish Exercise Sequence Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) STATUS = 5: FINISHED EXER SEQUENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: REST Pos Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) COMMAND = 6: REST POS PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Save Position Reached</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) STATUS = 6: SAVE POSITION REACHED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Prepare GUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) COMMAND = 7: PREPARE GUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: GUI Ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) STATUS = 7: GUI READY SELECTION POINTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Update Colors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) COMMAND = 8: UPDATE COLORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Colors Updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) STATUS = 8: UPDATED COLORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Select Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) COMMAND = 9: POINT SELECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Point Selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) STATUS = 9: POINT SELECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Finish Point Selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum) STATUS = 10: FINISHED POINT SELECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Update Subtask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 12: START TASK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Subtask Updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 12: TASK STARTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 13: BUFFER STATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 13: BUFFER STATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Finish exercise guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 14: FINISH EXERCISE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: exercise guide finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 14: EXERCISE FINISHED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IK NODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Check IK connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IK node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/IK_node/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Do Mat REGISTRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/IK_node/command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 2: START REGISTRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: REGISTRATION Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 2: REGISTRATION FINISHED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Define WORK VOLUME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 3: DEFINE WORK VOLUME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: WORK VOLUME Defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 3: WORK VOLUME DEFINED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: Define TRAJECTORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 4: DEFINE TRAJECTORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: TRAJECTORY Defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 4: TRAJECTORY DEFINED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROS Paremeters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ownership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REST POINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/point0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/mat_coordinates</t>
+    <t>uint8 (to be transformed in enum), STATUS = 5: STARTED GRIP CONTROL</t>
+  </si>
+  <si>
+    <t>Command: Stop Control</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 6: STOP CONTROL</t>
+  </si>
+  <si>
+    <t>Status: Stop Control</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 6: STOPPED CONTROL</t>
+  </si>
+  <si>
+    <t>bool= 1/0 CLOSER OR NOT (not used)</t>
+  </si>
+  <si>
+    <t>GUI NODE</t>
+  </si>
+  <si>
+    <t>Status: Finish log in</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>/gui/status</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 1: LOG IN FINISHED</t>
+  </si>
+  <si>
+    <t>Command: Home Page Therapist</t>
+  </si>
+  <si>
+    <t>/gui/command</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) COMMAND = 2: HOMEPAGE</t>
+  </si>
+  <si>
+    <t>Status: Finish Home Page</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 2: FINISHED HOMEPAGE</t>
+  </si>
+  <si>
+    <t>Command: Wearing Procedure</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) COMMAND = 3: WEARING</t>
+  </si>
+  <si>
+    <t>Status: Finish Wearing Page</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 3: FINISHED WEARING</t>
+  </si>
+  <si>
+    <t>Command: ROM/LENGTH Procedure</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) COMMAND = 4: ROM/LENGTH</t>
+  </si>
+  <si>
+    <t>Status: Finish ROM/LENGTH Procedure</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 4: FINISHED ROM/LENGTH</t>
+  </si>
+  <si>
+    <t>Command: Exercise Sequence Definition</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) COMMAND = 5: DEFINE SEQUENCE</t>
+  </si>
+  <si>
+    <t>define control type, sequence of exercise and object used</t>
+  </si>
+  <si>
+    <t>Status: Finish Exercise Sequence Definition</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 5: FINISHED EXER SEQUENCE</t>
+  </si>
+  <si>
+    <t>Command: REST Pos Procedure</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) COMMAND = 6: REST POS PROCEDURE</t>
+  </si>
+  <si>
+    <t>Status: Save Position Reached</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 6: SAVE POSITION REACHED</t>
+  </si>
+  <si>
+    <t>Command: Prepare GUI</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) COMMAND = 7: PREPARE GUI</t>
+  </si>
+  <si>
+    <t>Status: GUI Ready</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 7: GUI READY SELECTION POINTS</t>
+  </si>
+  <si>
+    <t>Command: Update Colors</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) COMMAND = 8: UPDATE COLORS</t>
+  </si>
+  <si>
+    <t>Status: Colors Updated</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 8: UPDATED COLORS</t>
+  </si>
+  <si>
+    <t>Command: Select Point</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) COMMAND = 9: POINT SELECTION</t>
+  </si>
+  <si>
+    <t>Status: Point Selected</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 9: POINT SELECTED</t>
+  </si>
+  <si>
+    <t>Status: Finish Point Selection</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum) STATUS = 10: FINISHED POINT SELECTION</t>
+  </si>
+  <si>
+    <t>Command: Update Subtask</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 12: START TASK</t>
+  </si>
+  <si>
+    <t>Status: Subtask Updated</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 12: TASK STARTED</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 13: BUFFER STATE</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 13: BUFFER STATE</t>
+  </si>
+  <si>
+    <t>Command: Finish exercise guide</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 14: FINISH EXERCISE</t>
+  </si>
+  <si>
+    <t>Status: exercise guide finished</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 14: EXERCISE FINISHED</t>
+  </si>
+  <si>
+    <t>IK NODE</t>
+  </si>
+  <si>
+    <t>Status: Check IK connection</t>
+  </si>
+  <si>
+    <t>IK node</t>
+  </si>
+  <si>
+    <t>/IK_node/status</t>
+  </si>
+  <si>
+    <t>Command: Do Mat REGISTRATION</t>
+  </si>
+  <si>
+    <t>/IK_node/command</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 2: START REGISTRATION</t>
+  </si>
+  <si>
+    <t>Status: REGISTRATION Done</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 2: REGISTRATION FINISHED</t>
+  </si>
+  <si>
+    <t>Command: Define WORK VOLUME</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 3: DEFINE WORK VOLUME</t>
+  </si>
+  <si>
+    <t>Status: WORK VOLUME Defined</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 3: WORK VOLUME DEFINED</t>
+  </si>
+  <si>
+    <t>Command: Define TRAJECTORY</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 4: DEFINE TRAJECTORY</t>
+  </si>
+  <si>
+    <t>Status: TRAJECTORY Defined</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 4: TRAJECTORY DEFINED</t>
+  </si>
+  <si>
+    <t>ROS Paremeters</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>REST POINT</t>
+  </si>
+  <si>
+    <t>/point0</t>
+  </si>
+  <si>
+    <t>/mat_coordinates</t>
   </si>
   <si>
     <t xml:space="preserve">uint8[2] (X,Y) </t>
   </si>
   <si>
-    <t xml:space="preserve">/enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/color</t>
+    <t>/enabled</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>/color</t>
   </si>
   <si>
     <t xml:space="preserve">uint8  (1: red 2:blue 3:green) </t>
   </si>
   <si>
-    <t xml:space="preserve">/configuration</t>
+    <t>/configuration</t>
   </si>
   <si>
     <t xml:space="preserve">float[5] </t>
   </si>
   <si>
-    <t xml:space="preserve">EXERCISE POINT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/point1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXERCISE POINT 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/point2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXERCISE POINT 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/point3</t>
+    <t>EXERCISE POINT 1</t>
+  </si>
+  <si>
+    <t>/point1</t>
+  </si>
+  <si>
+    <t>EXERCISE POINT 2</t>
+  </si>
+  <si>
+    <t>/point2</t>
+  </si>
+  <si>
+    <t>EXERCISE POINT 3</t>
+  </si>
+  <si>
+    <t>/point3</t>
   </si>
   <si>
     <t xml:space="preserve">ROM Max </t>
   </si>
   <si>
-    <t xml:space="preserve">/physiological_param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ROM_Max</t>
+    <t>/physiological_param</t>
+  </si>
+  <si>
+    <t>/ROM_Max</t>
   </si>
   <si>
     <t xml:space="preserve">float[5] J_max </t>
   </si>
   <si>
-    <t xml:space="preserve">ROM Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ROM_Min</t>
+    <t>ROM Min</t>
+  </si>
+  <si>
+    <t>/ROM_Min</t>
   </si>
   <si>
     <t xml:space="preserve">float[5] J_min </t>
   </si>
   <si>
-    <t xml:space="preserve">Arm Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/arm_length</t>
+    <t>Arm Length</t>
+  </si>
+  <si>
+    <t>/arm_length</t>
   </si>
   <si>
     <t xml:space="preserve">float[2] (upperarm, lower_arm) </t>
   </si>
   <si>
-    <t xml:space="preserve">Side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bool (0 = LEFT, 1 = RIGTH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercise Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/exercise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sequence</t>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>/side</t>
+  </si>
+  <si>
+    <t>Bool (0 = LEFT, 1 = RIGTH)</t>
+  </si>
+  <si>
+    <t>Exercise Sequence</t>
+  </si>
+  <si>
+    <t>/exercise</t>
+  </si>
+  <si>
+    <t>/sequence</t>
   </si>
   <si>
     <t xml:space="preserve">uint8[7] exercise_sequence </t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise Repetition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/repetitions</t>
+    <t>Exercise Repetition</t>
+  </si>
+  <si>
+    <t>/repetitions</t>
   </si>
   <si>
     <t xml:space="preserve">uint8[7] exercise_repetition </t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/mode</t>
+    <t>Exercise Mode</t>
+  </si>
+  <si>
+    <t>/mode</t>
   </si>
   <si>
     <t xml:space="preserve">uint8 exercise_mode (1: passive 2:trigger 3:aan 4: anti-g 5: challenging) </t>
   </si>
   <si>
-    <t xml:space="preserve">Object used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/object</t>
+    <t>Object used</t>
+  </si>
+  <si>
+    <t>/object</t>
   </si>
   <si>
     <t xml:space="preserve">uint8[7] object (1: glass, 2:bottle ...) </t>
   </si>
   <si>
-    <t xml:space="preserve">/current_exercise</t>
+    <t>/current_exercise</t>
   </si>
   <si>
     <t xml:space="preserve">uint8 </t>
   </si>
   <si>
-    <t xml:space="preserve">position in exercise sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT Calibration Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modules to be used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/registration_antenna_point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float[3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Exercise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/registration_matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float[3] calibration_translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/active_modules</t>
+    <t>position in exercise sequence</t>
+  </si>
+  <si>
+    <t>Modules to be used</t>
+  </si>
+  <si>
+    <t>float[3]</t>
+  </si>
+  <si>
+    <t>Current Exercise</t>
+  </si>
+  <si>
+    <t>/registration_matrix</t>
+  </si>
+  <si>
+    <t>float[3] calibration_translation</t>
+  </si>
+  <si>
+    <t>/active_modules</t>
   </si>
   <si>
     <t xml:space="preserve">boolean[n] active_modules </t>
   </si>
   <si>
-    <t xml:space="preserve">SPALLA,GOMITO,POLSO,MAT,RFID,MAP,EMG</t>
+    <t>SPALLA,GOMITO,POLSO,MAT,RFID,MAP,EMG</t>
+  </si>
+  <si>
+    <t>Actual Exercise</t>
+  </si>
+  <si>
+    <t>MAT Calibration Vector</t>
+  </si>
+  <si>
+    <t>/mat_registration_vect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -703,7 +690,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -726,11 +713,10 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -765,7 +751,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -773,141 +759,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -966,36 +900,313 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:AMK158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C159" activeCellId="0" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="32.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="80.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="58.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="2" width="14.44"/>
+    <col min="1" max="1" width="47" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="80.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="14.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1062,7 +1272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1082,8 +1292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1126,8 +1335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1150,7 +1358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1170,7 +1378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1178,7 +1386,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1198,7 +1406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1218,8 +1426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -1239,7 +1446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>35</v>
       </c>
@@ -1259,8 +1466,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -1280,7 +1487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -1300,8 +1507,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1321,7 +1527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
@@ -1341,7 +1547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
@@ -1361,7 +1567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>43</v>
       </c>
@@ -1381,7 +1587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
@@ -1401,7 +1607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>43</v>
       </c>
@@ -1421,7 +1627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
@@ -1444,7 +1650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>53</v>
       </c>
@@ -1465,14 +1671,14 @@
       </c>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="D40" s="12"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
@@ -1492,7 +1698,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>59</v>
       </c>
@@ -1512,7 +1718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>61</v>
       </c>
@@ -1532,7 +1738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -1552,17 +1758,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>67</v>
       </c>
@@ -1582,7 +1788,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>69</v>
       </c>
@@ -1602,17 +1808,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>73</v>
       </c>
@@ -1632,7 +1838,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>75</v>
       </c>
@@ -1652,17 +1858,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>77</v>
       </c>
@@ -1682,7 +1888,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>79</v>
       </c>
@@ -1702,17 +1908,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>82</v>
       </c>
@@ -1735,7 +1941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>83</v>
       </c>
@@ -1756,10 +1962,10 @@
       </c>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G72" s="19"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>87</v>
       </c>
@@ -1779,7 +1985,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>90</v>
       </c>
@@ -1799,7 +2005,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -1807,7 +2013,7 @@
       <c r="E75" s="17"/>
       <c r="F75" s="19"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>92</v>
       </c>
@@ -1827,7 +2033,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>94</v>
       </c>
@@ -1847,7 +2053,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1855,7 +2061,7 @@
       <c r="E78" s="12"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>96</v>
       </c>
@@ -1875,7 +2081,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>98</v>
       </c>
@@ -1895,7 +2101,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -1903,7 +2109,7 @@
       <c r="E81" s="12"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>100</v>
       </c>
@@ -1926,7 +2132,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>103</v>
       </c>
@@ -1946,7 +2152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>105</v>
       </c>
@@ -1966,7 +2172,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -1986,7 +2192,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>109</v>
       </c>
@@ -2006,7 +2212,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>111</v>
       </c>
@@ -2026,7 +2232,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>113</v>
       </c>
@@ -2046,7 +2252,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>115</v>
       </c>
@@ -2066,7 +2272,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>117</v>
       </c>
@@ -2086,7 +2292,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>119</v>
       </c>
@@ -2106,7 +2312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>121</v>
       </c>
@@ -2126,7 +2332,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>123</v>
       </c>
@@ -2146,7 +2352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>125</v>
       </c>
@@ -2166,7 +2372,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>33</v>
       </c>
@@ -2186,7 +2392,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>35</v>
       </c>
@@ -2206,7 +2412,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>129</v>
       </c>
@@ -2226,7 +2432,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>131</v>
       </c>
@@ -2246,7 +2452,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
         <v>133</v>
       </c>
@@ -2269,7 +2475,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>134</v>
       </c>
@@ -2289,7 +2495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>137</v>
       </c>
@@ -2309,7 +2515,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>140</v>
       </c>
@@ -2329,7 +2535,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>142</v>
       </c>
@@ -2349,7 +2555,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>144</v>
       </c>
@@ -2369,7 +2575,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>146</v>
       </c>
@@ -2389,7 +2595,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>148</v>
       </c>
@@ -2409,7 +2615,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>150</v>
       </c>
@@ -2428,7 +2634,7 @@
       </c>
       <c r="G124" s="23"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="24" t="s">
         <v>155</v>
       </c>
@@ -2442,7 +2648,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
       <c r="D126" s="2" t="s">
         <v>156</v>
@@ -2454,7 +2660,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
       <c r="D127" s="2" t="s">
         <v>156</v>
@@ -2466,7 +2672,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
       <c r="D128" s="2" t="s">
         <v>156</v>
@@ -2478,10 +2684,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="24"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="24" t="s">
         <v>165</v>
       </c>
@@ -2495,7 +2701,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="24"/>
       <c r="D131" s="2" t="s">
         <v>166</v>
@@ -2507,7 +2713,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="24"/>
       <c r="D132" s="2" t="s">
         <v>166</v>
@@ -2519,7 +2725,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="24"/>
       <c r="D133" s="2" t="s">
         <v>166</v>
@@ -2531,10 +2737,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="24"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="24" t="s">
         <v>167</v>
       </c>
@@ -2548,7 +2754,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="24"/>
       <c r="D136" s="2" t="s">
         <v>168</v>
@@ -2560,7 +2766,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="24"/>
       <c r="D137" s="2" t="s">
         <v>168</v>
@@ -2572,7 +2778,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="24"/>
       <c r="D138" s="2" t="s">
         <v>168</v>
@@ -2584,10 +2790,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="24"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="24" t="s">
         <v>169</v>
       </c>
@@ -2601,7 +2807,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="24"/>
       <c r="D141" s="2" t="s">
         <v>170</v>
@@ -2613,7 +2819,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
       <c r="D142" s="2" t="s">
         <v>170</v>
@@ -2625,7 +2831,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="24"/>
       <c r="D143" s="2" t="s">
         <v>170</v>
@@ -2637,10 +2843,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24" t="s">
         <v>171</v>
       </c>
@@ -2655,7 +2861,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
         <v>175</v>
       </c>
@@ -2670,7 +2876,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
         <v>178</v>
       </c>
@@ -2685,7 +2891,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
         <v>181</v>
       </c>
@@ -2699,13 +2905,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="24"/>
       <c r="B149" s="11"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
         <v>184</v>
       </c>
@@ -2720,7 +2926,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="24" t="s">
         <v>188</v>
       </c>
@@ -2735,7 +2941,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
         <v>191</v>
       </c>
@@ -2750,7 +2956,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
         <v>194</v>
       </c>
@@ -2764,7 +2970,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="24" t="s">
+        <v>208</v>
+      </c>
       <c r="D154" s="2" t="s">
         <v>185</v>
       </c>
@@ -2778,53 +2987,49 @@
         <v>199</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="24" t="s">
-        <v>200</v>
-      </c>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="11"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="24" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B156" s="11"/>
       <c r="E156" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E157" s="12" t="s">
+      <c r="E158" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F157" s="12" t="s">
+      <c r="F158" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E158" s="12" t="s">
+      <c r="G158" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F158" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>209</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="212">
   <si>
     <t>MAT NODE</t>
   </si>
@@ -194,21 +194,9 @@
     <t>/rf_module/status</t>
   </si>
   <si>
-    <t>Command: Save XYZ</t>
-  </si>
-  <si>
     <t>/rf_module/command</t>
   </si>
   <si>
-    <t>uint8 (to be transformed in enum), COMMAND = 2: SAVE ANTENNA MAT POSITION</t>
-  </si>
-  <si>
-    <t>Status: Save XYZ</t>
-  </si>
-  <si>
-    <t>uint8 (to be transformed in enum), STATUS = 2: ANTENNA MAT POSITION SAVED</t>
-  </si>
-  <si>
     <t>Command: Start Control Object</t>
   </si>
   <si>
@@ -657,6 +645,21 @@
   </si>
   <si>
     <t>/mat_registration_vect</t>
+  </si>
+  <si>
+    <t>Status: Back clicked</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 20: BACK CLICKED</t>
+  </si>
+  <si>
+    <t>Status: Emergency stop clicked</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 30: EMERGENCY CLICKED</t>
   </si>
 </sst>
 </file>
@@ -1187,10 +1190,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK158"/>
+  <dimension ref="A1:AMK161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1679,48 +1682,24 @@
       <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A41" s="6"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>9</v>
@@ -1732,15 +1711,15 @@
         <v>10</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>54</v>
@@ -1755,22 +1734,22 @@
         <v>55</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>9</v>
@@ -1782,15 +1761,15 @@
         <v>10</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>54</v>
@@ -1799,28 +1778,28 @@
         <v>9</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>9</v>
@@ -1832,15 +1811,15 @@
         <v>10</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>54</v>
@@ -1849,28 +1828,28 @@
         <v>9</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>9</v>
@@ -1882,15 +1861,15 @@
         <v>10</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>54</v>
@@ -1905,22 +1884,22 @@
         <v>55</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>1</v>
@@ -1943,22 +1922,22 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G71" s="10"/>
     </row>
@@ -1967,42 +1946,42 @@
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="F73" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2015,42 +1994,42 @@
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="F76" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,42 +2042,42 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="F79" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2111,265 +2090,265 @@
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="F82" s="19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="F85" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="F88" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="F91" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="F94" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D99" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="F99" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="12" t="s">
-        <v>10</v>
+      <c r="D100" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,16 +2359,16 @@
         <v>9</v>
       </c>
       <c r="C102" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="F102" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2397,170 +2376,178 @@
         <v>35</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="12" t="s">
-        <v>10</v>
+      <c r="D103" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D105" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="F105" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="12" t="s">
-        <v>10</v>
+      <c r="D106" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="21" t="s">
-        <v>52</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C110" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>136</v>
+        <v>208</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>139</v>
+      <c r="A112" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F115" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>9</v>
@@ -2569,130 +2556,141 @@
         <v>10</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C127" s="22"/>
+      <c r="D127" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F119" s="9" t="s">
+      <c r="E127" s="23" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="F127" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="G127" s="23"/>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C124" s="22"/>
-      <c r="D124" s="23" t="s">
+      <c r="D128" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E124" s="23" t="s">
+      <c r="E128" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F124" s="23" t="s">
+      <c r="F128" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="G124" s="23"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="D126" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="D127" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="24"/>
-      <c r="D128" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="24"/>
+      <c r="D129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="24" t="s">
-        <v>165</v>
-      </c>
+      <c r="A130" s="24"/>
       <c r="D130" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>157</v>
@@ -2704,48 +2702,48 @@
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="24"/>
       <c r="D131" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F131" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="24"/>
-      <c r="D132" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E132" s="2" t="s">
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="F132" s="12" t="s">
+      <c r="D133" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="24"/>
-      <c r="D133" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="24"/>
+      <c r="D134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
-        <v>167</v>
-      </c>
+      <c r="A135" s="24"/>
       <c r="D135" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>157</v>
@@ -2757,48 +2755,48 @@
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="24"/>
       <c r="D136" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F136" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="24"/>
-      <c r="D137" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
+      <c r="A138" s="24" t="s">
+        <v>163</v>
+      </c>
       <c r="D138" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="24"/>
+      <c r="D139" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="24" t="s">
-        <v>169</v>
-      </c>
+      <c r="A140" s="24"/>
       <c r="D140" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>157</v>
@@ -2810,221 +2808,250 @@
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="24"/>
       <c r="D141" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F141" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
-      <c r="D142" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="24"/>
+      <c r="A143" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="D143" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
+      <c r="D144" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B145" s="11"/>
+      <c r="A145" s="24"/>
       <c r="D145" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B146" s="11"/>
+      <c r="A146" s="24"/>
       <c r="D146" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B147" s="11"/>
-      <c r="D147" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="A147" s="24"/>
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
-        <v>181</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B148" s="11"/>
       <c r="D148" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="D149" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E149" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="11"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
+      <c r="F149" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B150" s="11"/>
       <c r="D150" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B151" s="11"/>
+        <v>177</v>
+      </c>
       <c r="D151" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>190</v>
+        <v>168</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="A152" s="24"/>
       <c r="B152" s="11"/>
-      <c r="D152" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
     </row>
     <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B153" s="11"/>
       <c r="D153" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="24" t="s">
-        <v>208</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B154" s="11"/>
       <c r="D154" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E154" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="F154" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="24" t="s">
+        <v>187</v>
+      </c>
       <c r="B155" s="11"/>
+      <c r="D155" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B156" s="11"/>
+        <v>190</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="E156" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="11"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B159" s="11"/>
+      <c r="E159" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F160" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E157" s="12" t="s">
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F158" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="216">
   <si>
     <t>MAT NODE</t>
   </si>
@@ -660,6 +660,18 @@
   </si>
   <si>
     <t>uint8 (to be transformed in enum), STATUS = 30: EMERGENCY CLICKED</t>
+  </si>
+  <si>
+    <t>POINT R</t>
+  </si>
+  <si>
+    <t>/pointR</t>
+  </si>
+  <si>
+    <t>POINT L</t>
+  </si>
+  <si>
+    <t>/pointL</t>
   </si>
 </sst>
 </file>
@@ -1190,10 +1202,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK161"/>
+  <dimension ref="A1:AMK170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133:D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2661,65 +2673,48 @@
       </c>
       <c r="G127" s="23"/>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E128" s="2" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F128" s="12" t="s">
+      <c r="F129" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
-      <c r="D129" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E129" s="2" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D130" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
-      <c r="D130" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E130" s="2" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D131" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F130" s="12" t="s">
+      <c r="F131" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="24"/>
-      <c r="D131" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="24"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="24" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>153</v>
@@ -2728,10 +2723,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="24"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D134" s="2" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>155</v>
@@ -2740,10 +2734,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="24"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D135" s="2" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>157</v>
@@ -2752,305 +2745,396 @@
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
-      <c r="D136" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
+      <c r="A137" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="24" t="s">
-        <v>163</v>
-      </c>
+      <c r="A138" s="24"/>
       <c r="D138" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="24"/>
       <c r="D139" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="24"/>
       <c r="D140" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="24"/>
-      <c r="D141" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
+      <c r="A142" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="24" t="s">
-        <v>165</v>
-      </c>
+      <c r="A143" s="24"/>
       <c r="D143" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
       <c r="D144" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24"/>
       <c r="D145" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="24"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="24"/>
+      <c r="D148" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="24"/>
+      <c r="D149" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="24"/>
+      <c r="D150" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="24"/>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="24"/>
+      <c r="D153" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="24"/>
+      <c r="D154" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F145" s="12" t="s">
+      <c r="F154" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="24"/>
-      <c r="D146" s="2" t="s">
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="24"/>
+      <c r="D155" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F146" s="12" t="s">
+      <c r="F155" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="24"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B148" s="11"/>
-      <c r="D148" s="2" t="s">
+      <c r="B157" s="11"/>
+      <c r="D157" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E148" s="12" t="s">
+      <c r="E157" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F148" s="12" t="s">
+      <c r="F157" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24" t="s">
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B149" s="11"/>
-      <c r="D149" s="2" t="s">
+      <c r="B158" s="11"/>
+      <c r="D158" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E149" s="12" t="s">
+      <c r="E158" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F149" s="12" t="s">
+      <c r="F158" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="24" t="s">
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B150" s="11"/>
-      <c r="D150" s="2" t="s">
+      <c r="B159" s="11"/>
+      <c r="D159" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E150" s="12" t="s">
+      <c r="E159" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F150" s="12" t="s">
+      <c r="F159" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="24" t="s">
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="11"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-    </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="24" t="s">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="24"/>
+      <c r="B161" s="11"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B153" s="11"/>
-      <c r="D153" s="2" t="s">
+      <c r="B162" s="11"/>
+      <c r="D162" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E153" s="12" t="s">
+      <c r="E162" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F153" s="12" t="s">
+      <c r="F162" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="24" t="s">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B154" s="11"/>
-      <c r="D154" s="2" t="s">
+      <c r="B163" s="11"/>
+      <c r="D163" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E154" s="12" t="s">
+      <c r="E163" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F154" s="12" t="s">
+      <c r="F163" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="24" t="s">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B155" s="11"/>
-      <c r="D155" s="2" t="s">
+      <c r="B164" s="11"/>
+      <c r="D164" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E155" s="12" t="s">
+      <c r="E164" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F155" s="12" t="s">
+      <c r="F164" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="24" t="s">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F156" s="12" t="s">
+      <c r="F165" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F157" s="12" t="s">
+      <c r="F166" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="G166" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="11"/>
-    </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="11"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="B159" s="11"/>
-      <c r="E159" s="2" t="s">
+      <c r="B168" s="11"/>
+      <c r="E168" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F168" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="24" t="s">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E160" s="12" t="s">
+      <c r="E169" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F160" s="12" t="s">
+      <c r="F169" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="24" t="s">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E161" s="12" t="s">
+      <c r="E170" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F161" s="12" t="s">
+      <c r="F170" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G170" s="2" t="s">
         <v>203</v>
       </c>
     </row>

--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -74,15 +74,9 @@
     <t>/mat_module/command</t>
   </si>
   <si>
-    <t>uint8 (to be transformed in enum), COMMAND = 2: ALL LED ON</t>
-  </si>
-  <si>
     <t>Status: Turned ON All LEDs</t>
   </si>
   <si>
-    <t>uint8 (to be transformed in enum), STATUS = 2: ALL LED TURNED ON</t>
-  </si>
-  <si>
     <t>Command: Turn ON WS LEDs</t>
   </si>
   <si>
@@ -672,6 +666,12 @@
   </si>
   <si>
     <t>/pointL</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), COMMAND = 2: TURN SIDE LED ON</t>
+  </si>
+  <si>
+    <t>uint8 (to be transformed in enum), STATUS = 2: SIDE LED TURNED ON</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1204,8 @@
   </sheetPr>
   <dimension ref="A1:AMK170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133:D135"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1284,12 +1284,12 @@
         <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>8</v>
@@ -1304,12 +1304,12 @@
         <v>11</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>9</v>
@@ -1324,15 +1324,15 @@
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>8</v>
@@ -1347,12 +1347,12 @@
         <v>11</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>9</v>
@@ -1367,15 +1367,15 @@
         <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>8</v>
@@ -1390,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>9</v>
@@ -1418,12 +1418,12 @@
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>8</v>
@@ -1438,12 +1438,12 @@
         <v>11</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>9</v>
@@ -1458,12 +1458,12 @@
         <v>15</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
@@ -1478,13 +1478,13 @@
         <v>11</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -1499,12 +1499,12 @@
         <v>15</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>8</v>
@@ -1519,12 +1519,12 @@
         <v>11</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>9</v>
@@ -1539,12 +1539,12 @@
         <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>8</v>
@@ -1559,12 +1559,12 @@
         <v>11</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>9</v>
@@ -1579,12 +1579,12 @@
         <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>8</v>
@@ -1599,12 +1599,12 @@
         <v>11</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>9</v>
@@ -1619,12 +1619,12 @@
         <v>15</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>8</v>
@@ -1639,12 +1639,12 @@
         <v>11</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1</v>
@@ -1662,24 +1662,24 @@
         <v>5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>12</v>
@@ -1711,30 +1711,30 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="F44" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>9</v>
@@ -1743,148 +1743,148 @@
         <v>10</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="F49" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="F54" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="F60" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>9</v>
@@ -1893,25 +1893,25 @@
         <v>10</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>1</v>
@@ -1929,27 +1929,27 @@
         <v>5</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="F71" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="G71" s="10"/>
     </row>
@@ -1958,42 +1958,42 @@
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2006,42 +2006,42 @@
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,42 +2054,42 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2102,345 +2102,345 @@
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,47 +2453,47 @@
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>1</v>
@@ -2511,24 +2511,24 @@
         <v>5</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>12</v>
@@ -2536,30 +2536,30 @@
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>9</v>
@@ -2568,38 +2568,38 @@
         <v>10</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>9</v>
@@ -2608,38 +2608,38 @@
         <v>10</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>9</v>
@@ -2648,151 +2648,151 @@
         <v>10</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C127" s="22"/>
       <c r="D127" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F127" s="23" t="s">
         <v>148</v>
-      </c>
-      <c r="E127" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F127" s="23" t="s">
-        <v>150</v>
       </c>
       <c r="G127" s="23"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D130" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D131" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D134" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D135" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="F137" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="24"/>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="24"/>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="24"/>
       <c r="D140" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2800,52 +2800,52 @@
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="24"/>
       <c r="D143" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
       <c r="D144" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24"/>
       <c r="D145" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2853,52 +2853,52 @@
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="24"/>
       <c r="D148" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="24"/>
       <c r="D149" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="24"/>
       <c r="D150" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2906,52 +2906,52 @@
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="24"/>
       <c r="D153" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="24"/>
       <c r="D154" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="24"/>
       <c r="D155" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2959,61 +2959,61 @@
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B157" s="11"/>
       <c r="D157" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F157" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B158" s="11"/>
       <c r="D158" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B159" s="11"/>
       <c r="D159" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3024,78 +3024,78 @@
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B162" s="11"/>
       <c r="D162" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F162" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F162" s="12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B163" s="11"/>
       <c r="D163" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B164" s="11"/>
       <c r="D164" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F165" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F165" s="12" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E166" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F166" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3103,39 +3103,39 @@
     </row>
     <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B168" s="11"/>
       <c r="E168" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E170" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/AGREE_msg_template.xlsx
+++ b/AGREE_msg_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="224">
   <si>
     <t xml:space="preserve">MAT NODE</t>
   </si>
@@ -430,6 +430,12 @@
     <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 30: EMERGENCY CLICKED</t>
   </si>
   <si>
+    <t xml:space="preserve">Command : Emergency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8 (to be transformed in enum), COMMAND = 31: EMERGENCY CHOICE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status: Emergency Reset</t>
   </si>
   <si>
@@ -439,7 +445,7 @@
     <t xml:space="preserve">Status: Emergency Stop</t>
   </si>
   <si>
-    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 31: EMERGENCY STOP</t>
+    <t xml:space="preserve">uint8 (to be transformed in enum), STATUS = 32: EMERGENCY STOP</t>
   </si>
   <si>
     <t xml:space="preserve">IK NODE</t>
@@ -1012,23 +1018,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F113" activeCellId="0" sqref="F113"/>
+      <selection pane="topLeft" activeCell="F115" activeCellId="0" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="32.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="80.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="58.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="2" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="2" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,125 +2321,133 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>137</v>
-      </c>
+      <c r="A112" s="6"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B114" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="17" t="s">
+      <c r="C114" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="12" t="s">
+      <c r="E114" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F114" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C117" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="21" t="s">
+      <c r="D117" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="21" t="s">
+      <c r="E117" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F115" s="21" t="s">
+      <c r="F117" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G115" s="21" t="s">
+      <c r="G117" s="21" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="C118" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D118" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F118" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6" t="s">
+      <c r="B120" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F119" s="9" t="s">
+      <c r="F120" s="9" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2441,11 +2455,11 @@
       <c r="A121" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>142</v>
+      <c r="B121" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>10</v>
@@ -2457,23 +2471,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="s">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F122" s="9" t="s">
+      <c r="B123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2481,11 +2495,11 @@
       <c r="A124" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>142</v>
+      <c r="B124" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>10</v>
@@ -2497,508 +2511,528 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6" t="s">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F125" s="9" t="s">
+      <c r="B126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F126" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="22" t="s">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B127" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C130" s="22"/>
-      <c r="D130" s="23" t="s">
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E130" s="23" t="s">
+      <c r="B132" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="F130" s="23" t="s">
+      <c r="C132" s="22"/>
+      <c r="D132" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G130" s="23"/>
-    </row>
-    <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="24" t="s">
+      <c r="E132" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="F132" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="G132" s="23"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="F132" s="12" t="s">
+      <c r="D134" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D133" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F134" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E134" s="2" t="s">
+    <row r="135" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F134" s="12" t="s">
+      <c r="F135" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="24" t="s">
+      <c r="D136" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="F136" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D137" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E137" s="2" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F138" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D138" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E138" s="2" t="s">
+    <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D139" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F138" s="12" t="s">
+      <c r="F139" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="24" t="s">
-        <v>172</v>
-      </c>
+    <row r="140" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D140" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="24"/>
-      <c r="D141" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E141" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F142" s="12" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="24"/>
-      <c r="D142" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="24"/>
       <c r="D143" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="24"/>
+      <c r="D144" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="24" t="s">
+      <c r="A145" s="24"/>
+      <c r="D145" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="F145" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F145" s="12" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="24"/>
-      <c r="D146" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E146" s="2" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F147" s="12" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="24"/>
-      <c r="D147" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="24"/>
       <c r="D148" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="24"/>
+      <c r="D149" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="24" t="s">
-        <v>178</v>
-      </c>
+      <c r="A150" s="24"/>
       <c r="D150" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="24"/>
-      <c r="D151" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E151" s="2" t="s">
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F152" s="12" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="24"/>
-      <c r="D152" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="24"/>
       <c r="D153" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F153" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="24"/>
+      <c r="D154" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="24" t="s">
-        <v>180</v>
-      </c>
+      <c r="A155" s="24"/>
       <c r="D155" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="24"/>
-      <c r="D156" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E156" s="2" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="F157" s="12" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="24"/>
-      <c r="D157" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="24"/>
       <c r="D158" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F158" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="24"/>
+      <c r="D159" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B160" s="11"/>
+      <c r="A160" s="24"/>
       <c r="D160" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E160" s="12" t="s">
-        <v>184</v>
+      <c r="E160" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B161" s="11"/>
-      <c r="D161" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F161" s="12" t="s">
-        <v>188</v>
-      </c>
+      <c r="A161" s="24"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="24" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B162" s="11"/>
       <c r="D162" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163" s="11"/>
+      <c r="D163" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B164" s="11"/>
+      <c r="D164" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E164" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="F164" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="24"/>
-      <c r="B164" s="11"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B165" s="11"/>
-      <c r="D165" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E165" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F165" s="12" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="24" t="s">
-        <v>199</v>
-      </c>
+      <c r="A166" s="24"/>
       <c r="B166" s="11"/>
-      <c r="D166" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E166" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F166" s="12" t="s">
-        <v>201</v>
-      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B167" s="11"/>
       <c r="D167" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="24" t="s">
-        <v>205</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B168" s="11"/>
       <c r="D168" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B169" s="11"/>
+      <c r="D169" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E169" s="2" t="s">
+      <c r="F170" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F169" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="11"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F171" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B171" s="11"/>
-      <c r="E171" s="2" t="s">
+      <c r="G171" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F172" s="12" t="s">
-        <v>217</v>
-      </c>
+      <c r="B172" s="11"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B173" s="11"/>
+      <c r="E173" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E174" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E173" s="12" t="s">
+      <c r="F174" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F173" s="12" t="s">
+    </row>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="E175" s="12" t="s">
         <v>221</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
